--- a/K9HZ_LFP_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Control_Board_BOM_V1.00_01-14-24.xlsx
+++ b/K9HZ_LFP_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Control_Board_BOM_V1.00_01-14-24.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\T41\V012 Files\BOMs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\K9HZ_LFP_Module\K9HZ_LPF_V1.00_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062867E5-C5EC-4504-9418-41FA5E76B3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AF7170-B443-400E-9D32-37034614FFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>Qty</t>
   </si>
@@ -94,27 +94,18 @@
     <t>L1, L2</t>
   </si>
   <si>
-    <t>3.5uH</t>
-  </si>
-  <si>
     <t>L36, L37, L39, L41</t>
   </si>
   <si>
     <t>L38, L40, L42, L43</t>
   </si>
   <si>
-    <t>22uH</t>
-  </si>
-  <si>
     <t>L44</t>
   </si>
   <si>
     <t>L200</t>
   </si>
   <si>
-    <t>10uH 20%</t>
-  </si>
-  <si>
     <t>Q1</t>
   </si>
   <si>
@@ -178,9 +169,6 @@
     <t>U13</t>
   </si>
   <si>
-    <t>L7808</t>
-  </si>
-  <si>
     <t>U14, U19</t>
   </si>
   <si>
@@ -220,9 +208,6 @@
     <t>J16.1, J16.2, J17.1, J17.2</t>
   </si>
   <si>
-    <t>IDC1x5 Male</t>
-  </si>
-  <si>
     <t>J1, J21, J24, J25</t>
   </si>
   <si>
@@ -277,15 +262,9 @@
     <t>A-2939</t>
   </si>
   <si>
-    <t>A-1055</t>
-  </si>
-  <si>
     <t>490-SJ1-3515N</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>80-C1206C106K4P</t>
   </si>
   <si>
@@ -352,9 +331,6 @@
     <t>71-CRCW12060000Z0EAC</t>
   </si>
   <si>
-    <t>71-CRCW1206-3.3K-E3</t>
-  </si>
-  <si>
     <t>603-RC1206FR-0752R3L</t>
   </si>
   <si>
@@ -391,9 +367,6 @@
     <t>R16, R18, R24, R25</t>
   </si>
   <si>
-    <t>~Pad</t>
-  </si>
-  <si>
     <t>22K Ohm 10-Turn 3296W Potentiometer</t>
   </si>
   <si>
@@ -415,9 +388,6 @@
     <t>512-2N7000D26Z</t>
   </si>
   <si>
-    <t>2N7002-D26Z</t>
-  </si>
-  <si>
     <t>712-CONSMA001-G</t>
   </si>
   <si>
@@ -425,6 +395,69 @@
   </si>
   <si>
     <t>Cost</t>
+  </si>
+  <si>
+    <t>652-CR1206FX-3301ELF</t>
+  </si>
+  <si>
+    <t>2N7000-D26Z</t>
+  </si>
+  <si>
+    <t>71-CRCW1206499RFKEB</t>
+  </si>
+  <si>
+    <t>499 Ohm SMD 1206 Resistor</t>
+  </si>
+  <si>
+    <t>71-CRCW1206-54.9-E3</t>
+  </si>
+  <si>
+    <t>54.9 Ohm SMD 1206 Resistor</t>
+  </si>
+  <si>
+    <t>595-ULN2803CDWR</t>
+  </si>
+  <si>
+    <t>595-CD74HC4514M96</t>
+  </si>
+  <si>
+    <t>511-L7808ACV-DG</t>
+  </si>
+  <si>
+    <t>L7808ACV</t>
+  </si>
+  <si>
+    <t>584-AD8307ARZ-R7</t>
+  </si>
+  <si>
+    <t>70-ILSB1206ER220K</t>
+  </si>
+  <si>
+    <t>81-1264EY-100MP3</t>
+  </si>
+  <si>
+    <t>3.3uH</t>
+  </si>
+  <si>
+    <t>70-ILSB1206ER3R3K</t>
+  </si>
+  <si>
+    <t>710-860130375005</t>
+  </si>
+  <si>
+    <t>581-REF1013101M063K</t>
+  </si>
+  <si>
+    <t>IDC1x5 Female</t>
+  </si>
+  <si>
+    <t>A-1304</t>
+  </si>
+  <si>
+    <t>22uH SMD 1206 Inductor</t>
+  </si>
+  <si>
+    <t>10uH 20% Power Inductor</t>
   </si>
 </sst>
 </file>
@@ -434,7 +467,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,6 +607,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -917,7 +956,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -935,6 +974,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1293,7 +1336,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1312,28 +1355,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -1347,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -1361,7 +1404,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -1375,7 +1418,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -1389,7 +1432,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -1403,7 +1446,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -1417,7 +1460,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -1425,10 +1468,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -1436,13 +1479,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -1450,13 +1493,13 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -1464,10 +1507,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -1475,10 +1521,13 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -1492,7 +1541,7 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -1500,13 +1549,13 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -1514,13 +1563,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="H15" s="6">
         <v>3.35</v>
@@ -1531,13 +1580,13 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -1545,13 +1594,13 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -1565,7 +1614,7 @@
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -1573,13 +1622,13 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -1587,10 +1636,13 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1598,13 +1650,13 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1612,13 +1664,13 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -1626,13 +1678,13 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G23" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -1640,10 +1692,13 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -1651,13 +1706,13 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -1665,13 +1720,13 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -1679,13 +1734,13 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -1693,13 +1748,13 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -1707,13 +1762,13 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -1721,13 +1776,13 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -1735,35 +1790,41 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="8">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>4</v>
-      </c>
-      <c r="B32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>122</v>
+      <c r="D32" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+      <c r="A33" s="8">
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -1771,13 +1832,13 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1785,13 +1846,13 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -1799,24 +1860,27 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="8">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
         <v>42</v>
       </c>
-      <c r="D36" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>3</v>
-      </c>
-      <c r="B37" t="s">
-        <v>45</v>
-      </c>
       <c r="C37" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="D37" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -1824,13 +1888,13 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -1838,46 +1902,55 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="8">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="8">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="D41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="8">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <v>2</v>
-      </c>
-      <c r="B42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>53</v>
+      <c r="D42" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -1885,13 +1958,13 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -1899,13 +1972,13 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D44" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -1913,13 +1986,13 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D45" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -1927,13 +2000,13 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D46" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -1941,13 +2014,13 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D47" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/K9HZ_LFP_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Control_Board_BOM_V1.00_01-14-24.xlsx
+++ b/K9HZ_LFP_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Control_Board_BOM_V1.00_01-14-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\K9HZ_LFP_Module\K9HZ_LPF_V1.00_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AF7170-B443-400E-9D32-37034614FFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3090CEB-02DF-4E98-BB6A-4312D45F9823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>Qty</t>
   </si>
@@ -127,9 +127,6 @@
     <t>R13, R20, R21, R28</t>
   </si>
   <si>
-    <t>R15</t>
-  </si>
-  <si>
     <t>RV19, RV27</t>
   </si>
   <si>
@@ -458,6 +455,15 @@
   </si>
   <si>
     <t>10uH 20% Power Inductor</t>
+  </si>
+  <si>
+    <t>R1, R2, R3, R15</t>
+  </si>
+  <si>
+    <t>R4, R5, R6</t>
+  </si>
+  <si>
+    <t>Not Populated</t>
   </si>
 </sst>
 </file>
@@ -1333,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1355,28 +1361,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="H1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -1390,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -1404,7 +1410,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -1418,7 +1424,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -1432,7 +1438,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -1446,7 +1452,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -1460,7 +1466,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -1468,10 +1474,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -1479,13 +1485,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -1493,13 +1499,13 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -1507,13 +1513,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -1521,13 +1527,13 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -1541,7 +1547,7 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -1549,13 +1555,13 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -1563,13 +1569,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H15" s="6">
         <v>3.35</v>
@@ -1580,13 +1586,13 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" t="s">
         <v>142</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -1594,13 +1600,13 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -1614,7 +1620,7 @@
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -1622,13 +1628,13 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -1636,13 +1642,13 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1650,13 +1656,13 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1664,13 +1670,13 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -1678,13 +1684,13 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -1692,13 +1698,13 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -1712,7 +1718,7 @@
         <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -1720,13 +1726,13 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -1734,195 +1740,192 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="8">
+      <c r="A32" s="1">
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="8">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <v>2</v>
-      </c>
-      <c r="B34" t="s">
-        <v>115</v>
-      </c>
       <c r="C34" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
         <v>1</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="8">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="8">
-        <v>3</v>
-      </c>
-      <c r="B37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>3</v>
-      </c>
-      <c r="B38" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
         <v>1</v>
       </c>
-      <c r="B39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="B40" t="s">
         <v>44</v>
       </c>
-      <c r="D39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="8">
-        <v>1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>47</v>
-      </c>
       <c r="C40" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -1930,41 +1933,41 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="8">
         <v>2</v>
       </c>
-      <c r="B42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="B43" t="s">
         <v>49</v>
       </c>
-      <c r="D42" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>1</v>
-      </c>
-      <c r="B43" t="s">
-        <v>52</v>
-      </c>
       <c r="C43" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -1972,13 +1975,13 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -1986,13 +1989,13 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D45" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -2000,13 +2003,13 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -2014,13 +2017,27 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
         <v>59</v>
       </c>
-      <c r="D47" t="s">
-        <v>120</v>
+      <c r="C48" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/K9HZ_LFP_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Control_Board_BOM_V1.00_01-14-24.xlsx
+++ b/K9HZ_LFP_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Control_Board_BOM_V1.00_01-14-24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\K9HZ_LFP_Module\K9HZ_LPF_V1.00_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3090CEB-02DF-4E98-BB6A-4312D45F9823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8724FD7C-F3D1-4935-AA62-FD41A524851E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="153">
   <si>
     <t>Qty</t>
   </si>
@@ -358,12 +358,6 @@
     <t>757-74HC237DBJ</t>
   </si>
   <si>
-    <t>R17, R22</t>
-  </si>
-  <si>
-    <t>R16, R18, R24, R25</t>
-  </si>
-  <si>
     <t>22K Ohm 10-Turn 3296W Potentiometer</t>
   </si>
   <si>
@@ -464,6 +458,27 @@
   </si>
   <si>
     <t>Not Populated</t>
+  </si>
+  <si>
+    <t>R17, R22 For 20W Readout</t>
+  </si>
+  <si>
+    <t>R16, R18, R24, R25 For 20W Readout</t>
+  </si>
+  <si>
+    <t>R16, R18, R24, R25 For 100W Readout</t>
+  </si>
+  <si>
+    <t>R17, R22 For 100W Readout</t>
+  </si>
+  <si>
+    <t>1116 Ohm SMD 1206 Resistor</t>
+  </si>
+  <si>
+    <t>71-CRCW12061K10FKEAC</t>
+  </si>
+  <si>
+    <t>71-CRCW1206-52.3-E3</t>
   </si>
 </sst>
 </file>
@@ -473,7 +488,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,6 +634,12 @@
       <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1043,9 +1064,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1083,7 +1104,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1189,7 +1210,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1331,7 +1352,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1339,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1379,10 +1400,10 @@
         <v>72</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -1519,7 +1540,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -1533,7 +1554,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -1575,7 +1596,7 @@
         <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H15" s="6">
         <v>3.35</v>
@@ -1586,13 +1607,13 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -1642,13 +1663,13 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1670,13 +1691,13 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -1698,13 +1719,13 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -1726,13 +1747,13 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -1740,10 +1761,10 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -1785,7 +1806,7 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -1810,7 +1831,7 @@
         <v>67</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D32" t="s">
         <v>105</v>
@@ -1821,181 +1842,181 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="D33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="8">
         <v>2</v>
       </c>
-      <c r="B34" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+      <c r="B35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="8">
         <v>2</v>
       </c>
-      <c r="B35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>5</v>
-      </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" t="s">
-        <v>106</v>
+        <v>149</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="8">
-        <v>3</v>
+      <c r="A38" s="1">
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="8">
         <v>3</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
         <v>108</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D41" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
         <v>1</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B42" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D42" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="8">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="8">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="8">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="8">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="8">
         <v>2</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D43" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>1</v>
-      </c>
-      <c r="B44" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>1</v>
-      </c>
-      <c r="B45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -2003,13 +2024,13 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -2017,13 +2038,13 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D47" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -2031,16 +2052,45 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D48" t="s">
-        <v>119</v>
+      <c r="D50" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>